--- a/QuadEchoCalib.xlsx
+++ b/QuadEchoCalib.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Devin\Desktop\HonorsProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Devin\Documents\GitHub\MRI-Research---Flow-Measurements-with-Low-Field\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5E0E35F-5E8F-45C0-A6FA-2D704EEE431E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD4A68A0-D1E0-4D93-A5D1-F82D96FEBDFC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{83D35449-6016-442B-8DBE-B5B0D247821A}"/>
   </bookViews>
@@ -435,7 +435,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -468,211 +468,163 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>169831</v>
+        <v>19985</v>
       </c>
       <c r="B2">
-        <v>316000</v>
+        <v>34000</v>
       </c>
       <c r="C2">
-        <v>303000</v>
+        <v>25100</v>
       </c>
       <c r="D2">
         <v>1.8</v>
       </c>
       <c r="E2">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G2">
-        <f>B2/A2</f>
-        <v>1.8606732575324882</v>
+        <f t="shared" ref="G2:G10" si="0">B2/A2</f>
+        <v>1.7012759569677258</v>
       </c>
       <c r="H2">
-        <f>C2/A2</f>
-        <v>1.7841265728871643</v>
+        <f t="shared" ref="H2:H10" si="1">C2/A2</f>
+        <v>1.2559419564673504</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>354171</v>
-      </c>
-      <c r="B3">
-        <v>565371</v>
+        <v>11970</v>
       </c>
       <c r="C3">
-        <v>746000</v>
+        <v>23822</v>
       </c>
       <c r="D3">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
       <c r="E3">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G3" s="2">
-        <f>B3/A3</f>
-        <v>1.5963221155882328</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="H3" s="2">
-        <f>C3/A3</f>
-        <v>2.1063271696440422</v>
+        <f t="shared" si="1"/>
+        <v>1.9901420217209691</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>350000</v>
+        <v>13400</v>
       </c>
       <c r="B4">
-        <v>622000</v>
+        <v>35261</v>
       </c>
       <c r="C4">
-        <v>540000</v>
+        <v>35200</v>
       </c>
       <c r="D4">
-        <v>3.5</v>
+        <v>1.8</v>
       </c>
       <c r="E4">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G4">
-        <f>B4/A4</f>
-        <v>1.7771428571428571</v>
+        <f t="shared" si="0"/>
+        <v>2.6314179104477611</v>
       </c>
       <c r="H4">
-        <f>C4/A4</f>
-        <v>1.5428571428571429</v>
+        <f t="shared" si="1"/>
+        <v>2.6268656716417911</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>275000</v>
-      </c>
-      <c r="B5">
-        <v>520000</v>
-      </c>
-      <c r="C5">
-        <v>568000</v>
-      </c>
       <c r="D5">
         <v>3.5</v>
       </c>
       <c r="E5">
         <v>26</v>
       </c>
-      <c r="G5">
-        <f>B5/A5</f>
-        <v>1.8909090909090909</v>
-      </c>
-      <c r="H5">
-        <f>C5/A5</f>
-        <v>2.0654545454545454</v>
+      <c r="G5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H5" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>444000</v>
-      </c>
-      <c r="B6">
-        <v>797000</v>
-      </c>
-      <c r="C6">
-        <v>796000</v>
-      </c>
       <c r="D6">
         <v>3.5</v>
       </c>
       <c r="E6">
         <v>25</v>
       </c>
-      <c r="G6">
-        <f>B6/A6</f>
-        <v>1.795045045045045</v>
-      </c>
-      <c r="H6">
-        <f>C6/A6</f>
-        <v>1.7927927927927927</v>
+      <c r="G6" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H6" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>602000</v>
-      </c>
-      <c r="B7">
-        <v>730000</v>
-      </c>
-      <c r="C7">
-        <v>807000</v>
-      </c>
       <c r="D7">
         <v>3.3</v>
       </c>
       <c r="E7">
         <v>25</v>
       </c>
-      <c r="G7" s="1">
-        <f>B7/A7</f>
-        <v>1.212624584717608</v>
-      </c>
-      <c r="H7" s="1">
-        <f>C7/A7</f>
-        <v>1.3405315614617941</v>
+      <c r="G7" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H7" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>568957</v>
-      </c>
-      <c r="B8">
-        <v>677021</v>
-      </c>
-      <c r="C8">
-        <v>708794</v>
-      </c>
       <c r="D8">
         <v>3.1</v>
       </c>
       <c r="E8">
         <v>25</v>
       </c>
-      <c r="G8">
-        <f>B8/A8</f>
-        <v>1.1899335099137545</v>
-      </c>
-      <c r="H8">
-        <f>C8/A8</f>
-        <v>1.2457778004313156</v>
+      <c r="G8" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H8" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>604000</v>
-      </c>
-      <c r="B9">
-        <v>762000</v>
-      </c>
-      <c r="C9">
-        <v>830000</v>
-      </c>
       <c r="D9">
         <v>3.5</v>
       </c>
       <c r="E9">
         <v>25</v>
       </c>
-      <c r="G9">
-        <f>B9/A9</f>
-        <v>1.2615894039735098</v>
-      </c>
-      <c r="H9">
-        <f>C9/A9</f>
-        <v>1.3741721854304636</v>
+      <c r="G9" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H9" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G10" t="e">
-        <f>B10/A10</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H10" t="e">
-        <f>C10/A10</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
